--- a/PageObjectModel/src/main/java/org/testleaf/qa/testdata/LeadsFullData.xlsx
+++ b/PageObjectModel/src/main/java/org/testleaf/qa/testdata/LeadsFullData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouneesh\eclipse-workspace\SeleniumTraining\PageObjectModel\src\main\java\org\testleaf\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouneesh\git\repository\PageObjectModel\src\main\java\org\testleaf\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD22A0-2903-4E54-8D66-D202DFADC7F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A10AFA4-9E9E-4AFC-8E8A-A64E9CEE85F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF41C036-37EB-4A4C-A936-DACDFFFD4641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FF41C036-37EB-4A4C-A936-DACDFFFD4641}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Lead" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>ExpectedCompanyName</t>
   </si>
   <si>
-    <t>bhuv</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>@</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27742AD9-3A18-4F5B-A095-E96D02CA7714}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B637D14-647B-4CD2-86FF-083678DA0CEB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,10 +785,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
